--- a/Dropbox/MOXIE/PROJECT MGMT/Product Status.xlsx
+++ b/Dropbox/MOXIE/PROJECT MGMT/Product Status.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Test Report</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Target Cost</t>
   </si>
   <si>
-    <t>A-ADL04</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
@@ -64,6 +61,15 @@
   </si>
   <si>
     <t>Inhouse</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>A-ADL025</t>
+  </si>
+  <si>
+    <t>A-ADV025</t>
   </si>
 </sst>
 </file>
@@ -435,7 +441,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +464,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -490,32 +496,36 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -527,14 +537,24 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
